--- a/Oct 2019 to Nov 2019 - Cord Cutting Wizard - Change Log.xlsx
+++ b/Oct 2019 to Nov 2019 - Cord Cutting Wizard - Change Log.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{218ABA5E-5DFE-4195-A590-973B980FF2B8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8723E4A-BD0F-4AE1-877B-C0481B5900C0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11949" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -253,31 +253,31 @@
     <t>OAN Events</t>
   </si>
   <si>
-    <t>New Alias added in Nov 2019</t>
-  </si>
-  <si>
-    <t>Network removed from base Service in Nov 2019</t>
-  </si>
-  <si>
-    <t>Network moved from base Service to Add-On Package in Nov 2019</t>
-  </si>
-  <si>
-    <t>Network added to Base Service in Nov 2019</t>
-  </si>
-  <si>
-    <t>Network moved from Add-On Package to Base Service in Nov 2019</t>
-  </si>
-  <si>
-    <t>New Network added to database in Nov 2019</t>
-  </si>
-  <si>
-    <t>Network removed from database in Nov 2019</t>
-  </si>
-  <si>
-    <t>Add-On Package renamed in Nov 2019</t>
-  </si>
-  <si>
-    <t>Network added to Add-On Package in Nov 2019</t>
+    <t>Alias Changed for Network</t>
+  </si>
+  <si>
+    <t>Name of Add-On Package Changed</t>
+  </si>
+  <si>
+    <t>Network Added to Add-On Package</t>
+  </si>
+  <si>
+    <t>Network Removed from Database</t>
+  </si>
+  <si>
+    <t>Network Added to Base Service in Nov 2019</t>
+  </si>
+  <si>
+    <t>Network Moved from Add-On Package to Base Service in Nov 2019</t>
+  </si>
+  <si>
+    <t>Network Moved from Base Service to Add-On Package in Nov 2019</t>
+  </si>
+  <si>
+    <t>Network Removed from Base Service</t>
+  </si>
+  <si>
+    <t>New Network Added to Database in Nov 2019</t>
   </si>
 </sst>
 </file>
@@ -1129,7 +1129,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="E5" sqref="E5:E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -1183,7 +1183,7 @@
         <v>4</v>
       </c>
       <c r="E3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.4">
@@ -1197,7 +1197,7 @@
         <v>4</v>
       </c>
       <c r="E4" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.4">
@@ -1211,7 +1211,7 @@
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.4">
@@ -1225,7 +1225,7 @@
         <v>4</v>
       </c>
       <c r="E6" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.4">
@@ -1242,7 +1242,7 @@
         <v>8</v>
       </c>
       <c r="E7" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.4">
@@ -1259,7 +1259,7 @@
         <v>8</v>
       </c>
       <c r="E8" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.4">
@@ -1276,7 +1276,7 @@
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.4">
@@ -1293,7 +1293,7 @@
         <v>8</v>
       </c>
       <c r="E10" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.4">
@@ -1310,7 +1310,7 @@
         <v>8</v>
       </c>
       <c r="E11" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.4">
@@ -1327,7 +1327,7 @@
         <v>8</v>
       </c>
       <c r="E12" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.4">
@@ -1344,7 +1344,7 @@
         <v>8</v>
       </c>
       <c r="E13" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.4">
@@ -1361,7 +1361,7 @@
         <v>8</v>
       </c>
       <c r="E14" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.4">
@@ -1378,7 +1378,7 @@
         <v>8</v>
       </c>
       <c r="E15" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.4">
@@ -1395,7 +1395,7 @@
         <v>8</v>
       </c>
       <c r="E16" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.4">
@@ -1412,7 +1412,7 @@
         <v>8</v>
       </c>
       <c r="E17" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.4">
@@ -1429,7 +1429,7 @@
         <v>8</v>
       </c>
       <c r="E18" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.4">
@@ -1446,7 +1446,7 @@
         <v>8</v>
       </c>
       <c r="E19" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.4">
@@ -1463,7 +1463,7 @@
         <v>8</v>
       </c>
       <c r="E20" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.4">
@@ -1480,7 +1480,7 @@
         <v>8</v>
       </c>
       <c r="E21" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.4">
@@ -1494,7 +1494,7 @@
         <v>72</v>
       </c>
       <c r="E22" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.4">
@@ -1508,7 +1508,7 @@
         <v>4</v>
       </c>
       <c r="E23" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.4">
@@ -1522,7 +1522,7 @@
         <v>4</v>
       </c>
       <c r="E24" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.4">
@@ -1536,7 +1536,7 @@
         <v>4</v>
       </c>
       <c r="E25" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.4">
@@ -1550,7 +1550,7 @@
         <v>4</v>
       </c>
       <c r="E26" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.4">
@@ -1564,7 +1564,7 @@
         <v>4</v>
       </c>
       <c r="E27" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.4">
@@ -1578,7 +1578,7 @@
         <v>4</v>
       </c>
       <c r="E28" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.4">
@@ -1592,7 +1592,7 @@
         <v>4</v>
       </c>
       <c r="E29" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.4">
@@ -1606,7 +1606,7 @@
         <v>4</v>
       </c>
       <c r="E30" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.4">
@@ -1620,7 +1620,7 @@
         <v>4</v>
       </c>
       <c r="E31" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.4">
@@ -1634,7 +1634,7 @@
         <v>4</v>
       </c>
       <c r="E32" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.4">
@@ -1648,7 +1648,7 @@
         <v>4</v>
       </c>
       <c r="E33" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.4">
@@ -1662,7 +1662,7 @@
         <v>4</v>
       </c>
       <c r="E34" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.4">
@@ -1676,7 +1676,7 @@
         <v>4</v>
       </c>
       <c r="E35" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.4">
@@ -1690,7 +1690,7 @@
         <v>4</v>
       </c>
       <c r="E36" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.4">
@@ -1704,7 +1704,7 @@
         <v>4</v>
       </c>
       <c r="E37" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.4">
@@ -1718,7 +1718,7 @@
         <v>4</v>
       </c>
       <c r="E38" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.4">
@@ -1732,7 +1732,7 @@
         <v>4</v>
       </c>
       <c r="E39" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.4">
@@ -1746,7 +1746,7 @@
         <v>4</v>
       </c>
       <c r="E40" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.4">
@@ -1760,7 +1760,7 @@
         <v>4</v>
       </c>
       <c r="E41" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.4">
@@ -1774,7 +1774,7 @@
         <v>4</v>
       </c>
       <c r="E42" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.4">
@@ -1788,7 +1788,7 @@
         <v>4</v>
       </c>
       <c r="E43" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.4">
@@ -1802,7 +1802,7 @@
         <v>4</v>
       </c>
       <c r="E44" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.4">
@@ -1816,7 +1816,7 @@
         <v>4</v>
       </c>
       <c r="E45" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.4">
@@ -1830,7 +1830,7 @@
         <v>4</v>
       </c>
       <c r="E46" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.4">
@@ -1844,7 +1844,7 @@
         <v>4</v>
       </c>
       <c r="E47" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.4">
@@ -1858,7 +1858,7 @@
         <v>4</v>
       </c>
       <c r="E48" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.4">
@@ -1872,7 +1872,7 @@
         <v>4</v>
       </c>
       <c r="E49" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.4">
@@ -1889,7 +1889,7 @@
         <v>4</v>
       </c>
       <c r="E50" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.4">
@@ -1906,7 +1906,7 @@
         <v>4</v>
       </c>
       <c r="E51" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.4">
@@ -1920,7 +1920,7 @@
         <v>4</v>
       </c>
       <c r="E52" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.4">
@@ -1934,7 +1934,7 @@
         <v>69</v>
       </c>
       <c r="E53" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.4">
@@ -1948,7 +1948,7 @@
         <v>20</v>
       </c>
       <c r="E54" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.4">
@@ -1962,7 +1962,7 @@
         <v>75</v>
       </c>
       <c r="E55" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.4">
@@ -1979,7 +1979,7 @@
         <v>43</v>
       </c>
       <c r="E56" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.4">
@@ -1993,7 +1993,7 @@
         <v>4</v>
       </c>
       <c r="E57" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.4">
@@ -2007,7 +2007,7 @@
         <v>4</v>
       </c>
       <c r="E58" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.4">
@@ -2024,7 +2024,7 @@
         <v>42</v>
       </c>
       <c r="E59" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
